--- a/timelog.xlsx
+++ b/timelog.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t xml:space="preserve">Total hours:</t>
   </si>
@@ -61,6 +61,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -120,24 +121,32 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -264,10 +273,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F12" activeCellId="0" sqref="F12"/>
+      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -281,11 +290,11 @@
       </c>
       <c r="B1" s="1" t="n">
         <f aca="false">SUM(D:D)</f>
-        <v>0.270833333333333</v>
+        <v>0.385416666666667</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -294,15 +303,15 @@
       <c r="C3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="E3" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="n">
+      <c r="A4" s="4" t="n">
         <v>46029</v>
       </c>
       <c r="B4" s="1" t="n">
@@ -311,16 +320,16 @@
       <c r="C4" s="1" t="n">
         <v>0.791666666666667</v>
       </c>
-      <c r="D4" s="4" t="n">
+      <c r="D4" s="5" t="n">
         <f aca="false">C4-B4</f>
         <v>0.104166666666667</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="E4" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="n">
+      <c r="A5" s="4" t="n">
         <v>46030</v>
       </c>
       <c r="B5" s="1" t="n">
@@ -329,11 +338,29 @@
       <c r="C5" s="1" t="n">
         <v>0.979166666666667</v>
       </c>
-      <c r="D5" s="4" t="n">
+      <c r="D5" s="5" t="n">
         <f aca="false">C5-B5</f>
         <v>0.166666666666667</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="E5" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="6" t="n">
+        <v>46031</v>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>0.614583333333333</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <f aca="false">C6-B6</f>
+        <v>0.114583333333333</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>7</v>
       </c>
     </row>

--- a/timelog.xlsx
+++ b/timelog.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
   <si>
     <t xml:space="preserve">Total hours:</t>
   </si>
@@ -40,10 +40,13 @@
     <t xml:space="preserve">Desc.</t>
   </si>
   <si>
-    <t xml:space="preserve">Projektin käynnistys ja frontti ohjelmointi</t>
+    <t xml:space="preserve">Projektin käynnistys</t>
   </si>
   <si>
     <t xml:space="preserve">Frontti ohjelmointi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Github ongelmia</t>
   </si>
 </sst>
 </file>
@@ -273,10 +276,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
+      <selection pane="topLeft" activeCell="E10" activeCellId="0" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -290,7 +293,7 @@
       </c>
       <c r="B1" s="1" t="n">
         <f aca="false">SUM(D:D)</f>
-        <v>0.385416666666667</v>
+        <v>0.520833333333333</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -318,11 +321,11 @@
         <v>0.6875</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>0.791666666666667</v>
+        <v>0.708333333333333</v>
       </c>
       <c r="D4" s="5" t="n">
         <f aca="false">C4-B4</f>
-        <v>0.104166666666667</v>
+        <v>0.0208333333333333</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>6</v>
@@ -330,38 +333,92 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="n">
-        <v>46030</v>
+        <v>46029</v>
       </c>
       <c r="B5" s="1" t="n">
-        <v>0.8125</v>
+        <v>0.71875</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>0.979166666666667</v>
+        <v>0.791666666666667</v>
       </c>
       <c r="D5" s="5" t="n">
         <f aca="false">C5-B5</f>
-        <v>0.166666666666667</v>
+        <v>0.0729166666666667</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="6" t="n">
-        <v>46031</v>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="4" t="n">
+        <v>46030</v>
       </c>
       <c r="B6" s="1" t="n">
-        <v>0.5</v>
+        <v>0.8125</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>0.614583333333333</v>
+        <v>0.979166666666667</v>
       </c>
       <c r="D6" s="5" t="n">
         <f aca="false">C6-B6</f>
-        <v>0.114583333333333</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="4" t="n">
+        <v>46031</v>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>0.614583333333333</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <f aca="false">C7-B7</f>
+        <v>0.114583333333333</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="6" t="n">
+        <v>46034</v>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <f aca="false">C8-B8</f>
+        <v>0.125</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="6" t="n">
+        <v>46034</v>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>0.645833333333333</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <f aca="false">C9-B9</f>
+        <v>0.0208333333333333</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/timelog.xlsx
+++ b/timelog.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
   <si>
     <t xml:space="preserve">Total hours:</t>
   </si>
@@ -40,13 +40,19 @@
     <t xml:space="preserve">Desc.</t>
   </si>
   <si>
-    <t xml:space="preserve">Projektin käynnistys</t>
+    <t xml:space="preserve">Frontin käynnistys</t>
   </si>
   <si>
     <t xml:space="preserve">Frontti ohjelmointi</t>
   </si>
   <si>
     <t xml:space="preserve">Github ongelmia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bäkkärin käynnistys</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bäkkäri ohjelmointi</t>
   </si>
 </sst>
 </file>
@@ -124,7 +130,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -146,10 +152,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -276,10 +278,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E10" activeCellId="0" sqref="E10"/>
+      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -293,7 +295,7 @@
       </c>
       <c r="B1" s="1" t="n">
         <f aca="false">SUM(D:D)</f>
-        <v>0.520833333333333</v>
+        <v>0.628472222222222</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -386,7 +388,7 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="6" t="n">
+      <c r="A8" s="4" t="n">
         <v>46034</v>
       </c>
       <c r="B8" s="1" t="n">
@@ -399,12 +401,12 @@
         <f aca="false">C8-B8</f>
         <v>0.125</v>
       </c>
-      <c r="E8" s="0" t="s">
+      <c r="E8" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="6" t="n">
+      <c r="A9" s="4" t="n">
         <v>46034</v>
       </c>
       <c r="B9" s="1" t="n">
@@ -417,8 +419,44 @@
         <f aca="false">C9-B9</f>
         <v>0.0208333333333333</v>
       </c>
-      <c r="E9" s="0" t="s">
+      <c r="E9" s="3" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="4" t="n">
+        <v>46034</v>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>0.65625</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>0.6875</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <f aca="false">C10-B10</f>
+        <v>0.03125</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="4" t="n">
+        <v>46035</v>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>0.770833333333333</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>0.847222222222222</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <f aca="false">C11-B11</f>
+        <v>0.0763888888888889</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/timelog.xlsx
+++ b/timelog.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
   <si>
     <t xml:space="preserve">Total hours:</t>
   </si>
@@ -40,13 +40,19 @@
     <t xml:space="preserve">Desc.</t>
   </si>
   <si>
-    <t xml:space="preserve">Projektin käynnistys</t>
+    <t xml:space="preserve">Frontin käynnistys</t>
   </si>
   <si>
     <t xml:space="preserve">Frontti ohjelmointi</t>
   </si>
   <si>
     <t xml:space="preserve">Github ongelmia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bäkkärin käynnistys</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bäkkäri ohjelmointi</t>
   </si>
 </sst>
 </file>
@@ -124,7 +130,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -146,10 +152,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -276,10 +278,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E10" activeCellId="0" sqref="E10"/>
+      <selection pane="topLeft" activeCell="H11" activeCellId="0" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -293,7 +295,7 @@
       </c>
       <c r="B1" s="1" t="n">
         <f aca="false">SUM(D:D)</f>
-        <v>0.520833333333333</v>
+        <v>0.628472222222222</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -386,7 +388,7 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="6" t="n">
+      <c r="A8" s="4" t="n">
         <v>46034</v>
       </c>
       <c r="B8" s="1" t="n">
@@ -399,12 +401,12 @@
         <f aca="false">C8-B8</f>
         <v>0.125</v>
       </c>
-      <c r="E8" s="0" t="s">
+      <c r="E8" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="6" t="n">
+      <c r="A9" s="4" t="n">
         <v>46034</v>
       </c>
       <c r="B9" s="1" t="n">
@@ -417,8 +419,44 @@
         <f aca="false">C9-B9</f>
         <v>0.0208333333333333</v>
       </c>
-      <c r="E9" s="0" t="s">
+      <c r="E9" s="3" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="4" t="n">
+        <v>46034</v>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>0.65625</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>0.6875</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <f aca="false">C10-B10</f>
+        <v>0.03125</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="4" t="n">
+        <v>46035</v>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>0.770833333333333</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>0.847222222222222</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <f aca="false">C11-B11</f>
+        <v>0.0763888888888889</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/timelog.xlsx
+++ b/timelog.xlsx
@@ -281,7 +281,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H11" activeCellId="0" sqref="H11"/>
+      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/timelog.xlsx
+++ b/timelog.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="16">
   <si>
     <t xml:space="preserve">Total hours:</t>
   </si>
@@ -37,9 +37,15 @@
     <t xml:space="preserve">Total</t>
   </si>
   <si>
+    <t xml:space="preserve">Front/Back?</t>
+  </si>
+  <si>
     <t xml:space="preserve">Desc.</t>
   </si>
   <si>
+    <t xml:space="preserve">Front</t>
+  </si>
+  <si>
     <t xml:space="preserve">Frontin käynnistys</t>
   </si>
   <si>
@@ -49,10 +55,19 @@
     <t xml:space="preserve">Github ongelmia</t>
   </si>
   <si>
+    <t xml:space="preserve">Back</t>
+  </si>
+  <si>
     <t xml:space="preserve">Bäkkärin käynnistys</t>
   </si>
   <si>
     <t xml:space="preserve">Bäkkäri ohjelmointi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fullstack</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frontin ja bäkin yhdistys</t>
   </si>
 </sst>
 </file>
@@ -130,7 +145,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -152,6 +167,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -278,10 +297,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
+      <selection pane="topLeft" activeCell="F13" activeCellId="0" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -295,7 +314,7 @@
       </c>
       <c r="B1" s="1" t="n">
         <f aca="false">SUM(D:D)</f>
-        <v>0.628472222222222</v>
+        <v>0.690972222222222</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -311,8 +330,11 @@
       <c r="D3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="0" t="s">
         <v>5</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -329,8 +351,11 @@
         <f aca="false">C4-B4</f>
         <v>0.0208333333333333</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>6</v>
+      <c r="E4" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -347,8 +372,11 @@
         <f aca="false">C5-B5</f>
         <v>0.0729166666666667</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="0" t="s">
         <v>7</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -365,8 +393,11 @@
         <f aca="false">C6-B6</f>
         <v>0.166666666666667</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="0" t="s">
         <v>7</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -383,8 +414,11 @@
         <f aca="false">C7-B7</f>
         <v>0.114583333333333</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="0" t="s">
         <v>7</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -401,8 +435,11 @@
         <f aca="false">C8-B8</f>
         <v>0.125</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="0" t="s">
         <v>7</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -419,8 +456,11 @@
         <f aca="false">C9-B9</f>
         <v>0.0208333333333333</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>8</v>
+      <c r="E9" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -437,8 +477,11 @@
         <f aca="false">C10-B10</f>
         <v>0.03125</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>9</v>
+      <c r="E10" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -456,7 +499,31 @@
         <v>0.0763888888888889</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="6" t="n">
+        <v>46047</v>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>0.604166666666667</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <f aca="false">C12-B12</f>
+        <v>0.0625</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/timelog.xlsx
+++ b/timelog.xlsx
@@ -145,7 +145,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -167,10 +167,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -300,7 +296,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F13" activeCellId="0" sqref="F13"/>
+      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -314,7 +310,7 @@
       </c>
       <c r="B1" s="1" t="n">
         <f aca="false">SUM(D:D)</f>
-        <v>0.690972222222222</v>
+        <v>0.815972222222222</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -330,7 +326,7 @@
       <c r="D3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="E3" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F3" s="3" t="s">
@@ -351,7 +347,7 @@
         <f aca="false">C4-B4</f>
         <v>0.0208333333333333</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="E4" s="3" t="s">
         <v>7</v>
       </c>
       <c r="F4" s="3" t="s">
@@ -372,7 +368,7 @@
         <f aca="false">C5-B5</f>
         <v>0.0729166666666667</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="E5" s="3" t="s">
         <v>7</v>
       </c>
       <c r="F5" s="3" t="s">
@@ -393,7 +389,7 @@
         <f aca="false">C6-B6</f>
         <v>0.166666666666667</v>
       </c>
-      <c r="E6" s="0" t="s">
+      <c r="E6" s="3" t="s">
         <v>7</v>
       </c>
       <c r="F6" s="3" t="s">
@@ -414,7 +410,7 @@
         <f aca="false">C7-B7</f>
         <v>0.114583333333333</v>
       </c>
-      <c r="E7" s="0" t="s">
+      <c r="E7" s="3" t="s">
         <v>7</v>
       </c>
       <c r="F7" s="3" t="s">
@@ -435,7 +431,7 @@
         <f aca="false">C8-B8</f>
         <v>0.125</v>
       </c>
-      <c r="E8" s="0" t="s">
+      <c r="E8" s="3" t="s">
         <v>7</v>
       </c>
       <c r="F8" s="3" t="s">
@@ -456,7 +452,7 @@
         <f aca="false">C9-B9</f>
         <v>0.0208333333333333</v>
       </c>
-      <c r="E9" s="0" t="s">
+      <c r="E9" s="3" t="s">
         <v>7</v>
       </c>
       <c r="F9" s="3" t="s">
@@ -477,7 +473,7 @@
         <f aca="false">C10-B10</f>
         <v>0.03125</v>
       </c>
-      <c r="E10" s="0" t="s">
+      <c r="E10" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F10" s="3" t="s">
@@ -498,7 +494,7 @@
         <f aca="false">C11-B11</f>
         <v>0.0763888888888889</v>
       </c>
-      <c r="E11" s="0" t="s">
+      <c r="E11" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F11" s="3" t="s">
@@ -506,20 +502,20 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="6" t="n">
+      <c r="A12" s="4" t="n">
         <v>46047</v>
       </c>
       <c r="B12" s="1" t="n">
-        <v>0.604166666666667</v>
+        <v>0.5625</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>0.666666666666667</v>
+        <v>0.75</v>
       </c>
       <c r="D12" s="5" t="n">
         <f aca="false">C12-B12</f>
-        <v>0.0625</v>
-      </c>
-      <c r="E12" s="0" t="s">
+        <v>0.1875</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F12" s="3" t="s">
